--- a/Excel Documents/ACC Workgroup to Pod Mapping.xlsx
+++ b/Excel Documents/ACC Workgroup to Pod Mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git-Repositories\AmbulatoryOptimization\Excel Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmb4f\source\Workspaces\Tom Burgan - My Files\Development\GitRepositories\AmbulatoryOptimization\Excel Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>Workgroup</t>
   </si>
@@ -441,6 +441,18 @@
   </si>
   <si>
     <t>Women's and Children's</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Unassign from Pod Digestive Health</t>
+  </si>
+  <si>
+    <t>Assign to Pod Digestive Health</t>
   </si>
 </sst>
 </file>
@@ -476,8 +488,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -767,9 +780,11 @@
     <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="2" width="82.140625" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,13 +794,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -793,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -801,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -812,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -823,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -834,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -845,7 +866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -856,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -867,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -878,7 +899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -889,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -897,7 +918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -905,7 +926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -913,7 +934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1185,7 +1206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1193,12 +1214,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -1209,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1220,18 +1241,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
-      <c r="C54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
+        <v>43544</v>
+      </c>
+      <c r="E54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -1239,15 +1263,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
       <c r="B56" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43544</v>
+      </c>
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -1255,7 +1288,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -1263,7 +1296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -1271,7 +1304,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -1279,7 +1312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -1287,7 +1320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -1295,7 +1328,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -1306,7 +1339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>76</v>
       </c>

--- a/Excel Documents/ACC Workgroup to Pod Mapping.xlsx
+++ b/Excel Documents/ACC Workgroup to Pod Mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="210">
   <si>
     <t>Workgroup</t>
   </si>
@@ -453,6 +453,207 @@
   </si>
   <si>
     <t>Assign to Pod Digestive Health</t>
+  </si>
+  <si>
+    <t>CHSS_Green</t>
+  </si>
+  <si>
+    <t>CHSS_Yellow</t>
+  </si>
+  <si>
+    <t>CHSS_Dev1</t>
+  </si>
+  <si>
+    <t>CHSS_Dev2</t>
+  </si>
+  <si>
+    <t>CHSS_DevOverflow</t>
+  </si>
+  <si>
+    <t>CHSS_Med1</t>
+  </si>
+  <si>
+    <t>CHSS_Med2</t>
+  </si>
+  <si>
+    <t>CHSS_Med3</t>
+  </si>
+  <si>
+    <t>CHSS_MedOverflow</t>
+  </si>
+  <si>
+    <t>CHSS_Surg1</t>
+  </si>
+  <si>
+    <t>CHSS_Surg2</t>
+  </si>
+  <si>
+    <t>CHSS_SurgOverflow</t>
+  </si>
+  <si>
+    <t>Update from Katie Pennock</t>
+  </si>
+  <si>
+    <t>Peds_Battle</t>
+  </si>
+  <si>
+    <t>Peds_HemOnc1</t>
+  </si>
+  <si>
+    <t>Peds_HemOnc2</t>
+  </si>
+  <si>
+    <t>Peds_NR</t>
+  </si>
+  <si>
+    <t>Peds_NRTriage</t>
+  </si>
+  <si>
+    <t>Peds_Orange</t>
+  </si>
+  <si>
+    <t>PedsSOM_ByYourSide</t>
+  </si>
+  <si>
+    <t>PedsSOM_CF1</t>
+  </si>
+  <si>
+    <t>PedsSOM_CF2</t>
+  </si>
+  <si>
+    <t>PedsSOM_Endo_Diabetes1</t>
+  </si>
+  <si>
+    <t>PedsSOM_Endo_Diabetes2</t>
+  </si>
+  <si>
+    <t>PedsSOM_Genetics1</t>
+  </si>
+  <si>
+    <t>PedsSOM_Genetics2</t>
+  </si>
+  <si>
+    <t>PedsSOM_ID1</t>
+  </si>
+  <si>
+    <t>PedsSOM_ID2</t>
+  </si>
+  <si>
+    <t>PedsSOM_RespMed1</t>
+  </si>
+  <si>
+    <t>PedsSOM_RespMed2</t>
+  </si>
+  <si>
+    <t>PedsSOM_Rheum</t>
+  </si>
+  <si>
+    <t>TeenHealth</t>
+  </si>
+  <si>
+    <t>W_BBOBGYN_Sched</t>
+  </si>
+  <si>
+    <t>W_BBOBGYN_Triage</t>
+  </si>
+  <si>
+    <t>W_NRMidlife_Sched</t>
+  </si>
+  <si>
+    <t>W_NRMidlife_Triage</t>
+  </si>
+  <si>
+    <t>W_NROBGYN_Sched</t>
+  </si>
+  <si>
+    <t>W_NROBGYN_Triage</t>
+  </si>
+  <si>
+    <t>W_PCCOBGYN_Sched</t>
+  </si>
+  <si>
+    <t>W_PCCOBGYN_Triage</t>
+  </si>
+  <si>
+    <t>Dentistry</t>
+  </si>
+  <si>
+    <t>Ophth_Tier1</t>
+  </si>
+  <si>
+    <t>Ophth_Tier2</t>
+  </si>
+  <si>
+    <t>Ophthalmology</t>
+  </si>
+  <si>
+    <t>MSK_AdultRecon1</t>
+  </si>
+  <si>
+    <t>MSK_AdultRecon2</t>
+  </si>
+  <si>
+    <t>MSK_AdultRecon3</t>
+  </si>
+  <si>
+    <t>MSK_Hand1</t>
+  </si>
+  <si>
+    <t>MSK_Hand2</t>
+  </si>
+  <si>
+    <t>MSK_Hand3</t>
+  </si>
+  <si>
+    <t>MSK_Ortho1</t>
+  </si>
+  <si>
+    <t>MSK_Ortho2</t>
+  </si>
+  <si>
+    <t>MSK_Ortho3</t>
+  </si>
+  <si>
+    <t>MSK_PMC1</t>
+  </si>
+  <si>
+    <t>MSK_PMC2</t>
+  </si>
+  <si>
+    <t>MSK_PMC3</t>
+  </si>
+  <si>
+    <t>MSK_PMR1</t>
+  </si>
+  <si>
+    <t>MSK_PMR2</t>
+  </si>
+  <si>
+    <t>MSK_PMR3</t>
+  </si>
+  <si>
+    <t>MSK_PO1</t>
+  </si>
+  <si>
+    <t>MSK_PO2</t>
+  </si>
+  <si>
+    <t>MSK_PO3</t>
+  </si>
+  <si>
+    <t>MSK_Pump</t>
+  </si>
+  <si>
+    <t>MSK_Sports1</t>
+  </si>
+  <si>
+    <t>MSK_Sports2</t>
+  </si>
+  <si>
+    <t>MSK_Sports3</t>
+  </si>
+  <si>
+    <t>Musculoskeletal</t>
   </si>
 </sst>
 </file>
@@ -488,9 +689,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1220,546 +1424,1443 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" t="s">
-        <v>59</v>
+      <c r="A52" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>138</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E52" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>61</v>
+      <c r="A53" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>138</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" t="s">
-        <v>61</v>
+      <c r="A54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
       </c>
       <c r="D54" s="1">
-        <v>43544</v>
+        <v>43661</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>64</v>
+      <c r="A55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
+      <c r="A56" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="D56" s="1">
-        <v>43544</v>
+        <v>43661</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" t="s">
-        <v>68</v>
+      <c r="A57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E57" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" t="s">
-        <v>70</v>
+      <c r="A58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" t="s">
-        <v>68</v>
+      <c r="A59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" t="s">
-        <v>68</v>
+      <c r="A60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" t="s">
-        <v>68</v>
+      <c r="A61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E61" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" t="s">
-        <v>68</v>
+      <c r="A62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
+      <c r="A63" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>138</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E63" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43544</v>
+      </c>
+      <c r="E67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43544</v>
+      </c>
+      <c r="E69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" t="s">
+        <v>209</v>
+      </c>
+      <c r="D94" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>77</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B100" t="s">
         <v>78</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>79</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B101" t="s">
         <v>9</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C101" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>80</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B102" t="s">
         <v>9</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" t="s">
+        <v>186</v>
+      </c>
+      <c r="D104" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>81</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B105" t="s">
         <v>82</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C105" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>83</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B106" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>85</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>87</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B108" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>89</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B109" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>90</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B110" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>91</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B111" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>92</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B112" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>93</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B113" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>94</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B114" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" t="s">
+        <v>138</v>
+      </c>
+      <c r="D115" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>95</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B116" t="s">
         <v>96</v>
       </c>
-      <c r="C78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120" t="s">
+        <v>138</v>
+      </c>
+      <c r="D120" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C121" t="s">
+        <v>138</v>
+      </c>
+      <c r="D121" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" t="s">
+        <v>138</v>
+      </c>
+      <c r="D122" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" t="s">
+        <v>138</v>
+      </c>
+      <c r="D124" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" t="s">
+        <v>138</v>
+      </c>
+      <c r="D130" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E130" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>97</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B134" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>99</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B135" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>100</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B136" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>101</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B137" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>102</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B138" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>103</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B139" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>104</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B140" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>105</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B141" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>106</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B142" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>107</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B143" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>108</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B144" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>109</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B145" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>113</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B148" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>114</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B149" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>174</v>
+      </c>
+      <c r="C150" t="s">
+        <v>138</v>
+      </c>
+      <c r="D150" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E150" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>117</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B152" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>119</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B153" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>121</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B155" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>123</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B156" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>125</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B157" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>126</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B158" t="s">
         <v>127</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C158" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>128</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B159" t="s">
         <v>127</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C159" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>129</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B160" t="s">
         <v>96</v>
       </c>
-      <c r="C104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>130</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B161" t="s">
         <v>96</v>
       </c>
-      <c r="C105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="C161" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>131</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B162" t="s">
         <v>96</v>
       </c>
-      <c r="C106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="C162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>132</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B163" t="s">
         <v>96</v>
       </c>
-      <c r="C107" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="C163" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>133</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B164" t="s">
         <v>96</v>
       </c>
-      <c r="C108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="C164" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>134</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B165" t="s">
         <v>96</v>
       </c>
-      <c r="C109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>135</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B166" t="s">
         <v>96</v>
       </c>
-      <c r="C110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="C166" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>136</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B167" t="s">
         <v>96</v>
       </c>
-      <c r="C111" t="s">
-        <v>138</v>
+      <c r="C167" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" t="s">
+        <v>138</v>
+      </c>
+      <c r="D168" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E168" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" t="s">
+        <v>138</v>
+      </c>
+      <c r="D169" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E169" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C170" t="s">
+        <v>138</v>
+      </c>
+      <c r="D170" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E170" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" t="s">
+        <v>138</v>
+      </c>
+      <c r="D171" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E171" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C172" t="s">
+        <v>138</v>
+      </c>
+      <c r="D172" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E172" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" t="s">
+        <v>138</v>
+      </c>
+      <c r="D173" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E173" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" t="s">
+        <v>138</v>
+      </c>
+      <c r="D174" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E174" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175" t="s">
+        <v>138</v>
+      </c>
+      <c r="D175" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E175" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>